--- a/medições.xlsx
+++ b/medições.xlsx
@@ -1,40 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Documents\P&amp;D\Grade-SAE\Sistema supervisório\teste_grade\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFB7210-5B2A-4E2D-9341-453635FB2F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2930" yWindow="2210" windowWidth="19200" windowHeight="9970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Grade" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Grade" sheetId="1" r:id="rId1"/>
+    <sheet name="Validação" sheetId="2" r:id="rId2"/>
+    <sheet name="Demonstração" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Horário</t>
+  </si>
+  <si>
+    <t>Bragg (nm) @ 581-250</t>
+  </si>
+  <si>
+    <t>Temperatura (°C) @ 581-250</t>
+  </si>
+  <si>
+    <t>Temperatura (°C)</t>
+  </si>
+  <si>
+    <t>Bragg (nm) @ 613-30</t>
+  </si>
+  <si>
+    <t>Strain (ue) @ 613-30</t>
+  </si>
+  <si>
+    <t>Bragg (nm) @ 213-40</t>
+  </si>
+  <si>
+    <t>Strain (ue) @ 213-40</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,95 +86,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -425,166 +411,336 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Horário</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Bragg (nm) @ 581-250</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Temperatura (°C) @ 581-250</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Temperatura (°C)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Bragg (nm) @ 613-30</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Strain (ue) @ 613-30</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Bragg (nm) @ 213-40</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Strain (ue) @ 213-40</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>45138.63359318287</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1525.3837</v>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>45138.633593182873</v>
+      </c>
+      <c r="B2">
+        <v>1525.3837000000001</v>
+      </c>
+      <c r="C2">
         <v>20.85213784800381</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>20.85213784800381</v>
       </c>
-      <c r="E2" t="n">
-        <v>1529.1986</v>
-      </c>
-      <c r="F2" t="n">
-        <v>154.9237307070838</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="E2">
+        <v>1529.1985999999999</v>
+      </c>
+      <c r="F2">
+        <v>154.92373070708379</v>
+      </c>
+      <c r="G2">
         <v>1540.278</v>
       </c>
-      <c r="H2" t="n">
-        <v>-27.61929659978375</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>45138.63360476852</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1525.3837</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="H2">
+        <v>-27.619296599783748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>45138.633604768518</v>
+      </c>
+      <c r="B3">
+        <v>1525.3837000000001</v>
+      </c>
+      <c r="C3">
         <v>20.85213784800381</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>20.85213784800381</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1529.2012</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>157.1611306102497</v>
       </c>
-      <c r="G3" t="n">
-        <v>1540.2803</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-25.72917919895066</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="G3">
+        <v>1540.2802999999999</v>
+      </c>
+      <c r="H3">
+        <v>-25.729179198950661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>45138.63361636574</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1525.3806</v>
       </c>
-      <c r="C4" t="n">
-        <v>20.74295411199918</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.74295411199918</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1529.2017</v>
-      </c>
-      <c r="F4" t="n">
-        <v>158.4211962161149</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1540.2787</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="C4">
+        <v>20.742954111999179</v>
+      </c>
+      <c r="D4">
+        <v>20.742954111999179</v>
+      </c>
+      <c r="E4">
+        <v>1529.2017000000001</v>
+      </c>
+      <c r="F4">
+        <v>158.42119621611491</v>
+      </c>
+      <c r="G4">
+        <v>1540.2787000000001</v>
+      </c>
+      <c r="H4">
         <v>-26.2470022048842</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>45138.63362796066</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1525.3799</v>
-      </c>
-      <c r="C5" t="n">
-        <v>20.71829759199736</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.71829759199736</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1529.2022</v>
-      </c>
-      <c r="F5" t="n">
-        <v>159.0388549801631</v>
-      </c>
-      <c r="G5" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>45138.633627962961</v>
+      </c>
+      <c r="B5">
+        <v>1525.3798999999999</v>
+      </c>
+      <c r="C5">
+        <v>20.718297591997359</v>
+      </c>
+      <c r="D5">
+        <v>20.718297591997359</v>
+      </c>
+      <c r="E5">
+        <v>1529.2021999999999</v>
+      </c>
+      <c r="F5">
+        <v>159.03885498016311</v>
+      </c>
+      <c r="G5">
         <v>1540.278</v>
       </c>
-      <c r="H5" t="n">
-        <v>-26.64226273093671</v>
+      <c r="H5">
+        <v>-26.642262730936711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>45139.672088252322</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1550.4304</v>
+      </c>
+      <c r="D6">
+        <v>8467.7438754474497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>45139.672099641197</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1550.4319</v>
+      </c>
+      <c r="D7">
+        <v>8468.9765607089921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>45139.672111273147</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1550.4304</v>
+      </c>
+      <c r="D8">
+        <v>8467.7438754474497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>45139.672122870368</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1550.4289000000001</v>
+      </c>
+      <c r="D9">
+        <v>8466.5111901860928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>45139.672134363427</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1550.4319</v>
+      </c>
+      <c r="D10">
+        <v>8468.9765607089921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>45139.672145983794</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1550.4304</v>
+      </c>
+      <c r="D11">
+        <v>8467.7438754474497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>45139.672157488429</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1550.4304</v>
+      </c>
+      <c r="D12">
+        <v>8467.7438754474497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>45139.672169050929</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1550.4289000000001</v>
+      </c>
+      <c r="D13">
+        <v>8466.5111901860928</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>45139.672180624999</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1550.4304</v>
+      </c>
+      <c r="D14">
+        <v>8467.7438754474497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>45139.672192256941</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1550.4319</v>
+      </c>
+      <c r="D15">
+        <v>8468.9765607089921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>45139.675102222223</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1550.4335000000001</v>
+      </c>
+      <c r="D16">
+        <v>8470.2914249879468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>45139.677262824072</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1550.5114000000001</v>
+      </c>
+      <c r="D17">
+        <v>8534.3088795673993</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7136373-1D3A-4263-860B-B89ABB105098}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184A66A0-06D2-4FC0-A98F-9CBF13EB6E0F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/medições.xlsx
+++ b/medições.xlsx
@@ -477,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1020"/>
+  <dimension ref="A1:H1081"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -25879,7 +25879,7 @@
     </row>
     <row r="977">
       <c r="A977" s="5" t="n">
-        <v>45149.63766491147</v>
+        <v>45149.63766490741</v>
       </c>
       <c r="B977" t="n">
         <v>1525.694941725476</v>
@@ -25905,7 +25905,7 @@
     </row>
     <row r="978">
       <c r="A978" s="5" t="n">
-        <v>45149.6376765648</v>
+        <v>45149.6376765625</v>
       </c>
       <c r="B978" t="n">
         <v>1525.695187569679</v>
@@ -25931,7 +25931,7 @@
     </row>
     <row r="979">
       <c r="A979" s="5" t="n">
-        <v>45149.63768816753</v>
+        <v>45149.63768817129</v>
       </c>
       <c r="B979" t="n">
         <v>1525.691483322453</v>
@@ -25957,7 +25957,7 @@
     </row>
     <row r="980">
       <c r="A980" s="5" t="n">
-        <v>45149.63769982921</v>
+        <v>45149.63769982639</v>
       </c>
       <c r="B980" t="n">
         <v>1525.690878425946</v>
@@ -25983,7 +25983,7 @@
     </row>
     <row r="981">
       <c r="A981" s="5" t="n">
-        <v>45149.63771142433</v>
+        <v>45149.63771142361</v>
       </c>
       <c r="B981" t="n">
         <v>1525.688339553862</v>
@@ -26009,7 +26009,7 @@
     </row>
     <row r="982">
       <c r="A982" s="5" t="n">
-        <v>45149.63772316938</v>
+        <v>45149.6377231713</v>
       </c>
       <c r="B982" t="n">
         <v>1525.687927182349</v>
@@ -26035,7 +26035,7 @@
     </row>
     <row r="983">
       <c r="A983" s="5" t="n">
-        <v>45149.63773477269</v>
+        <v>45149.63773476852</v>
       </c>
       <c r="B983" t="n">
         <v>1525.689191864437</v>
@@ -26061,7 +26061,7 @@
     </row>
     <row r="984">
       <c r="A984" s="5" t="n">
-        <v>45149.63774639482</v>
+        <v>45149.63774640046</v>
       </c>
       <c r="B984" t="n">
         <v>1525.689212485146</v>
@@ -26087,7 +26087,7 @@
     </row>
     <row r="985">
       <c r="A985" s="5" t="n">
-        <v>45149.63775812295</v>
+        <v>45149.637758125</v>
       </c>
       <c r="B985" t="n">
         <v>1525.691622224401</v>
@@ -26113,7 +26113,7 @@
     </row>
     <row r="986">
       <c r="A986" s="5" t="n">
-        <v>45149.63776970482</v>
+        <v>45149.63776969907</v>
       </c>
       <c r="B986" t="n">
         <v>1525.692655870475</v>
@@ -26139,7 +26139,7 @@
     </row>
     <row r="987">
       <c r="A987" s="5" t="n">
-        <v>45149.63778114287</v>
+        <v>45149.63778114584</v>
       </c>
       <c r="B987" t="n">
         <v>1525.689653879037</v>
@@ -26165,7 +26165,7 @@
     </row>
     <row r="988">
       <c r="A988" s="5" t="n">
-        <v>45149.63779271998</v>
+        <v>45149.63779271991</v>
       </c>
       <c r="B988" t="n">
         <v>1525.691875680226</v>
@@ -26191,7 +26191,7 @@
     </row>
     <row r="989">
       <c r="A989" s="5" t="n">
-        <v>45149.63780434144</v>
+        <v>45149.63780434028</v>
       </c>
       <c r="B989" t="n">
         <v>1525.693811594169</v>
@@ -26217,7 +26217,7 @@
     </row>
     <row r="990">
       <c r="A990" s="5" t="n">
-        <v>45149.63781606907</v>
+        <v>45149.63781606482</v>
       </c>
       <c r="B990" t="n">
         <v>1525.693841083395</v>
@@ -26243,7 +26243,7 @@
     </row>
     <row r="991">
       <c r="A991" s="5" t="n">
-        <v>45149.63782777505</v>
+        <v>45149.63782777778</v>
       </c>
       <c r="B991" t="n">
         <v>1525.693525780306</v>
@@ -26269,7 +26269,7 @@
     </row>
     <row r="992">
       <c r="A992" s="5" t="n">
-        <v>45149.6378394143</v>
+        <v>45149.63783940972</v>
       </c>
       <c r="B992" t="n">
         <v>1525.692248278791</v>
@@ -26295,7 +26295,7 @@
     </row>
     <row r="993">
       <c r="A993" s="5" t="n">
-        <v>45149.63785107077</v>
+        <v>45149.63785107639</v>
       </c>
       <c r="B993" t="n">
         <v>1525.690841328275</v>
@@ -26321,7 +26321,7 @@
     </row>
     <row r="994">
       <c r="A994" s="5" t="n">
-        <v>45149.63786281351</v>
+        <v>45149.6378628125</v>
       </c>
       <c r="B994" t="n">
         <v>1525.692102212302</v>
@@ -26347,7 +26347,7 @@
     </row>
     <row r="995">
       <c r="A995" s="5" t="n">
-        <v>45149.63787453892</v>
+        <v>45149.63787453704</v>
       </c>
       <c r="B995" t="n">
         <v>1525.68747582272</v>
@@ -26373,7 +26373,7 @@
     </row>
     <row r="996">
       <c r="A996" s="5" t="n">
-        <v>45149.63788620717</v>
+        <v>45149.6378862037</v>
       </c>
       <c r="B996" t="n">
         <v>1525.687364761619</v>
@@ -26399,7 +26399,7 @@
     </row>
     <row r="997">
       <c r="A997" s="5" t="n">
-        <v>45149.63789793627</v>
+        <v>45149.63789793981</v>
       </c>
       <c r="B997" t="n">
         <v>1525.689007308459</v>
@@ -26425,7 +26425,7 @@
     </row>
     <row r="998">
       <c r="A998" s="5" t="n">
-        <v>45149.63790965969</v>
+        <v>45149.63790966435</v>
       </c>
       <c r="B998" t="n">
         <v>1525.68981047165</v>
@@ -26451,7 +26451,7 @@
     </row>
     <row r="999">
       <c r="A999" s="5" t="n">
-        <v>45149.63792126271</v>
+        <v>45149.63792126157</v>
       </c>
       <c r="B999" t="n">
         <v>1525.690395547365</v>
@@ -26477,7 +26477,7 @@
     </row>
     <row r="1000">
       <c r="A1000" s="5" t="n">
-        <v>45149.6379327816</v>
+        <v>45149.63793277778</v>
       </c>
       <c r="B1000" t="n">
         <v>1525.690114878393</v>
@@ -26503,7 +26503,7 @@
     </row>
     <row r="1001">
       <c r="A1001" s="5" t="n">
-        <v>45149.63794445707</v>
+        <v>45149.63794445602</v>
       </c>
       <c r="B1001" t="n">
         <v>1525.691035742848</v>
@@ -26529,7 +26529,7 @@
     </row>
     <row r="1002">
       <c r="A1002" s="5" t="n">
-        <v>45149.63795620666</v>
+        <v>45149.6379562037</v>
       </c>
       <c r="B1002" t="n">
         <v>1525.689650522591</v>
@@ -26555,7 +26555,7 @@
     </row>
     <row r="1003">
       <c r="A1003" s="5" t="n">
-        <v>45149.63796791199</v>
+        <v>45149.63796791666</v>
       </c>
       <c r="B1003" t="n">
         <v>1525.690395619781</v>
@@ -26581,7 +26581,7 @@
     </row>
     <row r="1004">
       <c r="A1004" s="5" t="n">
-        <v>45149.63797953954</v>
+        <v>45149.63797953704</v>
       </c>
       <c r="B1004" t="n">
         <v>1525.690619087107</v>
@@ -26607,7 +26607,7 @@
     </row>
     <row r="1005">
       <c r="A1005" s="5" t="n">
-        <v>45149.63799122825</v>
+        <v>45149.63799122685</v>
       </c>
       <c r="B1005" t="n">
         <v>1525.693065270552</v>
@@ -26633,7 +26633,7 @@
     </row>
     <row r="1006">
       <c r="A1006" s="5" t="n">
-        <v>45149.63800283581</v>
+        <v>45149.63800283565</v>
       </c>
       <c r="B1006" t="n">
         <v>1525.693146876134</v>
@@ -26659,7 +26659,7 @@
     </row>
     <row r="1007">
       <c r="A1007" s="5" t="n">
-        <v>45149.63801459502</v>
+        <v>45149.63801459491</v>
       </c>
       <c r="B1007" t="n">
         <v>1525.693620357294</v>
@@ -26685,7 +26685,7 @@
     </row>
     <row r="1008">
       <c r="A1008" s="5" t="n">
-        <v>45149.63802633154</v>
+        <v>45149.63802633102</v>
       </c>
       <c r="B1008" t="n">
         <v>1525.693134462964</v>
@@ -26711,7 +26711,7 @@
     </row>
     <row r="1009">
       <c r="A1009" s="5" t="n">
-        <v>45149.63803802327</v>
+        <v>45149.63803802084</v>
       </c>
       <c r="B1009" t="n">
         <v>1525.69194853814</v>
@@ -26737,7 +26737,7 @@
     </row>
     <row r="1010">
       <c r="A1010" s="5" t="n">
-        <v>45149.6380497506</v>
+        <v>45149.63804974537</v>
       </c>
       <c r="B1010" t="n">
         <v>1525.694370092808</v>
@@ -26763,7 +26763,7 @@
     </row>
     <row r="1011">
       <c r="A1011" s="5" t="n">
-        <v>45149.63806142167</v>
+        <v>45149.63806142361</v>
       </c>
       <c r="B1011" t="n">
         <v>1525.696576830248</v>
@@ -26789,7 +26789,7 @@
     </row>
     <row r="1012">
       <c r="A1012" s="5" t="n">
-        <v>45149.63807302529</v>
+        <v>45149.63807302083</v>
       </c>
       <c r="B1012" t="n">
         <v>1525.697408147628</v>
@@ -26815,7 +26815,7 @@
     </row>
     <row r="1013">
       <c r="A1013" s="5" t="n">
-        <v>45149.6380846996</v>
+        <v>45149.63808469907</v>
       </c>
       <c r="B1013" t="n">
         <v>1525.696350280784</v>
@@ -26841,7 +26841,7 @@
     </row>
     <row r="1014">
       <c r="A1014" s="5" t="n">
-        <v>45149.63809642037</v>
+        <v>45149.63809642361</v>
       </c>
       <c r="B1014" t="n">
         <v>1525.699437535544</v>
@@ -26867,7 +26867,7 @@
     </row>
     <row r="1015">
       <c r="A1015" s="5" t="n">
-        <v>45149.6381080073</v>
+        <v>45149.63810800926</v>
       </c>
       <c r="B1015" t="n">
         <v>1525.69684607596</v>
@@ -26893,7 +26893,7 @@
     </row>
     <row r="1016">
       <c r="A1016" s="5" t="n">
-        <v>45149.63811959224</v>
+        <v>45149.63811959491</v>
       </c>
       <c r="B1016" t="n">
         <v>1525.696335629964</v>
@@ -26919,7 +26919,7 @@
     </row>
     <row r="1017">
       <c r="A1017" s="5" t="n">
-        <v>45149.63813122761</v>
+        <v>45149.63813122685</v>
       </c>
       <c r="B1017" t="n">
         <v>1525.696173648132</v>
@@ -26945,7 +26945,7 @@
     </row>
     <row r="1018">
       <c r="A1018" s="5" t="n">
-        <v>45149.63814291206</v>
+        <v>45149.63814291666</v>
       </c>
       <c r="B1018" t="n">
         <v>1525.695842482406</v>
@@ -26971,7 +26971,7 @@
     </row>
     <row r="1019">
       <c r="A1019" s="5" t="n">
-        <v>45149.63815444389</v>
+        <v>45149.63815444444</v>
       </c>
       <c r="B1019" t="n">
         <v>1525.69495014621</v>
@@ -26997,7 +26997,7 @@
     </row>
     <row r="1020">
       <c r="A1020" s="5" t="n">
-        <v>45149.63816613655</v>
+        <v>45149.63816613426</v>
       </c>
       <c r="B1020" t="n">
         <v>1525.696873631796</v>
@@ -27019,6 +27019,1580 @@
       </c>
       <c r="H1020" t="n">
         <v>-87.22975491221638</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="5" t="n">
+        <v>45152.62480708333</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>1525.9769</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>41.46199391199674</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>41.46199391199674</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>1528.7786</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>-363.1373135787566</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>1540.8064</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>256.1626822431945</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="5" t="n">
+        <v>45152.62482021991</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>1525.9769</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>41.46199391199674</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>41.46199391199674</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>1528.7821</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>-360.1254290939287</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>1540.8072</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>256.8201143826715</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="5" t="n">
+        <v>45152.62484701389</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>1525.9782</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>41.50654220800114</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>41.50654220800114</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>1528.7884</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>-355.042604070559</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>1540.8084</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>257.4810600309616</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="5" t="n">
+        <v>45152.62485849537</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>1525.9786</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>41.5202488319977</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>41.5202488319977</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>1528.7939</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>-350.4138130793805</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>1540.8054</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>254.9156311528878</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="5" t="n">
+        <v>45152.62487005787</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>1525.9798</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>41.56136716800297</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>41.56136716800297</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>1528.8009</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>-344.7025434629734</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>1540.8073</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>256.1768686312374</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="5" t="n">
+        <v>45152.6248816088</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>1525.9812</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>41.60933564799872</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>41.60933564799872</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>1528.7994</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>-346.3579115472401</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>1540.8081</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>256.4841308667454</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="5" t="n">
+        <v>45152.62489310185</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>1525.9798</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>41.56136716800297</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>41.56136716800297</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>1528.8001</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>-345.3909742024241</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>1540.8074</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>256.2590476486487</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="5" t="n">
+        <v>45152.62490462963</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>1525.9806</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>41.58877811200388</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>41.58877811200388</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>1528.7923</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>-352.3114970861332</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>1540.808</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>256.5520218620966</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="5" t="n">
+        <v>45152.62491633102</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>1525.9813</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>41.61276184799786</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>41.61276184799786</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>1528.7901</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>-354.3869580132258</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>1540.8078</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>256.2125825545179</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="5" t="n">
+        <v>45152.62492788195</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>1525.9821</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>41.64017087199876</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>41.64017087199876</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>1528.7886</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>-355.8860742319315</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>1540.8082</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>256.3412127489564</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="5" t="n">
+        <v>45152.62493944445</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>1525.9827</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>41.6607269680014</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>41.6607269680014</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>1528.7854</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>-358.7960235193544</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>1540.8082</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>256.1911532481372</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="5" t="n">
+        <v>45152.62495094907</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>1525.9845</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>41.7223918000015</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>41.7223918000015</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>1528.7861</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>-358.6622993455113</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>1540.8065</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>254.3439566781711</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="5" t="n">
+        <v>45152.6249625</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>1525.9858</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>41.76692428799811</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>41.76692428799811</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>1528.7881</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>-357.2796694057566</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>1540.8084</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>255.5802708469838</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="5" t="n">
+        <v>45152.62497417824</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>1525.9865</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>41.79090219999988</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>41.79090219999988</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>1528.7882</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>-357.3758476945632</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>1540.8092</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>256.062664228848</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="5" t="n">
+        <v>45152.62498572917</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>1525.9869</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>41.80460351200422</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>41.80460351200422</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>1528.788</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>-357.6520853506099</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>1540.8055</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>252.9220210062515</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="5" t="n">
+        <v>45152.62499724537</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>1525.9872</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>41.81487932800164</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>41.81487932800164</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>1528.7899</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>-356.0951585460683</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>1540.8089</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>255.6410941422012</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="5" t="n">
+        <v>45152.62500888889</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>1525.9878</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>41.83543052800427</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>41.83543052800427</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>1528.7928</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>-353.7557862357017</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>1540.8067</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>253.6831319987602</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="5" t="n">
+        <v>45152.62502056713</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>1525.9874</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>41.82172979199993</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>41.82172979199993</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>1528.7896</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>-356.4053835996759</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>1540.8076</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>254.5227585284803</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="5" t="n">
+        <v>45152.62503193287</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>1525.9879</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>41.83885567200341</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>41.83885567200341</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>1528.7894</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>-356.7076479727118</v>
+      </c>
+      <c r="G1039" t="n">
+        <v>1540.807</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>253.9046654998003</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="5" t="n">
+        <v>45152.62504364584</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>1525.9895</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>41.89365579999745</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>41.89365579999745</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>1528.7777</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>-367.1924285094195</v>
+      </c>
+      <c r="G1040" t="n">
+        <v>1540.8056</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>252.3541183213123</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="5" t="n">
+        <v>45152.62505519676</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>1525.9883</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>41.85255608799997</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>41.85255608799997</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>1528.7762</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>-368.1708783347333</v>
+      </c>
+      <c r="G1041" t="n">
+        <v>1540.8035</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>250.9283868528833</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="5" t="n">
+        <v>45152.62506675926</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>1525.9877</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>41.83200536799734</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>41.83200536799734</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>1528.7681</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>-374.9850540994316</v>
+      </c>
+      <c r="G1042" t="n">
+        <v>1540.803</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>250.6675120218461</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="5" t="n">
+        <v>45152.62507826389</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>1525.9866</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>41.79432755199902</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>41.79432755199902</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>1528.7542</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>-386.6601867953359</v>
+      </c>
+      <c r="G1043" t="n">
+        <v>1540.7985</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>247.2445042941921</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="5" t="n">
+        <v>45152.62508981481</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>1525.9869</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>41.80460351200422</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>41.80460351200422</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>1528.7435</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>-395.9460452312597</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>1540.7988</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>247.4160268383879</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="5" t="n">
+        <v>45152.62510152778</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>1525.9885</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>41.85940619999825</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>41.85940619999825</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>1528.7302</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>-407.8077067030645</v>
+      </c>
+      <c r="G1045" t="n">
+        <v>1540.803</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>250.4674859482395</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="5" t="n">
+        <v>45152.62511297454</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>1525.9913</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>41.95530104799754</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>41.95530104799754</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>1528.7259</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>-412.2368227723333</v>
+      </c>
+      <c r="G1046" t="n">
+        <v>1540.8022</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>249.1100214183676</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="5" t="n">
+        <v>45152.62512452546</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>1525.982</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>41.63674479999963</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>41.63674479999963</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>1528.7179</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>-416.700102681665</v>
+      </c>
+      <c r="G1047" t="n">
+        <v>1540.8016</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>250.9424079240978</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="5" t="n">
+        <v>45152.62513623843</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>1525.9601</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>40.88604959200101</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>40.88604959200101</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>1528.6997</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>-426.6566184230368</v>
+      </c>
+      <c r="G1048" t="n">
+        <v>1540.8018</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>256.5868409773103</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="5" t="n">
+        <v>45152.6251477662</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>1525.9327</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>39.94574296800296</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>39.94574296800296</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>1528.7014</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>-418.0473727593434</v>
+      </c>
+      <c r="G1049" t="n">
+        <v>1540.8001</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>262.0540360361306</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="5" t="n">
+        <v>45152.62515931713</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>1525.9178</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>39.43390412799866</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>39.43390412799866</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>1528.7008</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>-414.6737206297519</v>
+      </c>
+      <c r="G1050" t="n">
+        <v>1540.7982</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>264.2290582369741</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="5" t="n">
+        <v>45152.62517086806</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>1525.89</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>38.47798000000407</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>38.47798000000407</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>1528.7035</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>-405.0852435114203</v>
+      </c>
+      <c r="G1051" t="n">
+        <v>1540.7992</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>272.0290945456342</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="5" t="n">
+        <v>45152.62518244213</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>1525.8859</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>38.33689375200036</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>38.33689375200036</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>1528.7099</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>-398.5055421111821</v>
+      </c>
+      <c r="G1052" t="n">
+        <v>1540.7971</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>271.3332647900507</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="5" t="n">
+        <v>45152.62519423611</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>1525.8731</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>37.89625631200139</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>37.89625631200139</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>1528.7119</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>-393.435620718661</v>
+      </c>
+      <c r="G1053" t="n">
+        <v>1540.8008</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>277.5905417470079</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="5" t="n">
+        <v>45152.62520570602</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>1525.8655</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>37.63450380000445</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>37.63450380000445</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>1528.7152</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>-388.6065248272744</v>
+      </c>
+      <c r="G1054" t="n">
+        <v>1540.7941</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>273.9953409167219</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="5" t="n">
+        <v>45152.62521725694</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>1525.8692</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>37.76194748800378</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>37.76194748800378</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>1528.7127</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>-391.7264429168284</v>
+      </c>
+      <c r="G1055" t="n">
+        <v>1540.7992</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>277.2561318832362</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="5" t="n">
+        <v>45152.62522877315</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>1525.8677</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>37.71028376800109</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>37.71028376800109</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>1528.716</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>-388.4940218447938</v>
+      </c>
+      <c r="G1056" t="n">
+        <v>1540.7955</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>274.5926533942912</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="5" t="n">
+        <v>45152.62524035879</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>1525.8663</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>37.66206104799753</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>37.66206104799753</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>1528.7167</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>-387.5251522757229</v>
+      </c>
+      <c r="G1057" t="n">
+        <v>1540.7944</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>274.0407100586063</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="5" t="n">
+        <v>45152.62525188657</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>1525.8633</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>37.55871608799998</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>37.55871608799998</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>1528.7175</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>-386.0512998402908</v>
+      </c>
+      <c r="G1058" t="n">
+        <v>1540.7973</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>277.1783197720761</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="5" t="n">
+        <v>45152.62526349537</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>1525.8585</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>37.39333420000231</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>37.39333420000231</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>1528.7249</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>-378.4264131518341</v>
+      </c>
+      <c r="G1059" t="n">
+        <v>1540.7952</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>276.6598481884485</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="5" t="n">
+        <v>45152.62527506945</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>1525.8572</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>37.34853692799789</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>37.34853692799789</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>1528.7262</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>-376.9672539329197</v>
+      </c>
+      <c r="G1060" t="n">
+        <v>1540.8187</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>296.2989373705892</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="5" t="n">
+        <v>45152.62528663194</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>1525.8572</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>37.34853692799789</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>37.34853692799789</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>1528.7294</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>-374.2135309753124</v>
+      </c>
+      <c r="G1061" t="n">
+        <v>1541.0508</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>487.036436829999</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="5" t="n">
+        <v>45152.62529818287</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>1525.8574</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>37.355428992004</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>37.355428992004</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>1528.7301</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>-373.6635337647151</v>
+      </c>
+      <c r="G1062" t="n">
+        <v>1541.0953</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>523.5557875199289</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="5" t="n">
+        <v>45152.62530976852</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>1525.8562</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>37.31407564799871</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>37.31407564799871</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>1528.7308</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>-372.746871453231</v>
+      </c>
+      <c r="G1063" t="n">
+        <v>1541.0387</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>477.3443430647995</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="5" t="n">
+        <v>45152.62532146991</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>1525.8562</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>37.31407564799871</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>37.31407564799871</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>1528.731</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>-372.5747637684172</v>
+      </c>
+      <c r="G1064" t="n">
+        <v>1541.0931</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>522.0497285477456</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="5" t="n">
+        <v>45152.62533293982</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>1525.859</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>37.41056319999799</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>37.41056319999799</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>1528.7296</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>-374.5128229576995</v>
+      </c>
+      <c r="G1065" t="n">
+        <v>1540.8127</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>290.9154045390038</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="5" t="n">
+        <v>45152.62534446759</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>1525.8576</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>37.36232099200227</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>37.36232099200227</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>1528.7331</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>-371.1342976919085</v>
+      </c>
+      <c r="G1066" t="n">
+        <v>1540.8074</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>286.9120847334538</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="5" t="n">
+        <v>45152.62535599537</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>1525.8598</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>37.43812876799891</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>37.43812876799891</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>1528.7344</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>-370.5917368378022</v>
+      </c>
+      <c r="G1067" t="n">
+        <v>1540.8035</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>283.153706288891</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="5" t="n">
+        <v>45152.6253678125</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>1525.8623</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>37.52426456800079</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>37.52426456800079</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>1528.7368</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>-369.1810766996599</v>
+      </c>
+      <c r="G1068" t="n">
+        <v>1540.8014</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>280.7991555828668</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="5" t="n">
+        <v>45152.62537928241</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>1525.8624</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>37.52770979199992</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>37.52770979199992</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>1528.7424</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>-364.3882452258984</v>
+      </c>
+      <c r="G1069" t="n">
+        <v>1540.8008</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>280.2809313430186</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="5" t="n">
+        <v>45152.62539077547</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>1525.8652</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>37.62416956799921</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>37.62416956799921</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>1528.7441</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>-363.6584242023803</v>
+      </c>
+      <c r="G1070" t="n">
+        <v>1540.7947</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>274.5638549148279</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="5" t="n">
+        <v>45152.62540233797</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>1525.8669</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>37.68272831200017</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>37.68272831200017</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>1528.9154</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>-216.6932385766237</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>1540.7956</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>274.8759872405092</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="5" t="n">
+        <v>45152.62541388889</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>1525.8658</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>37.64483788800185</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>37.64483788800185</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>1540.795</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>274.6595132312293</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="5" t="n">
+        <v>45152.62542560185</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>1525.867</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>37.68617279999931</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>37.68617279999931</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1073" t="n">
+        <v>1540.7945</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>273.9468732864046</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="5" t="n">
+        <v>45152.62543715278</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>1525.8679</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>37.71717247199936</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>37.71717247199936</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>1540.7924</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>271.9948163147937</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="5" t="n">
+        <v>45152.62544871528</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>1525.6602</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>30.52877516800173</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>30.52877516800173</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1075" t="n">
+        <v>1540.7908</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>323.1552523550222</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="5" t="n">
+        <v>45152.62546017361</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>1525.8718</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>37.85148940799697</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>37.85148940799697</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>1526.9521</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>-1907.4709113047</v>
+      </c>
+      <c r="G1076" t="n">
+        <v>1540.7881</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>267.480604932392</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="5" t="n">
+        <v>45152.62547179398</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>1525.8747</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>37.95135032800322</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>37.95135032800322</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>1528.4347</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>-632.3955864520231</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>1540.7844</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>263.7109965713817</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="5" t="n">
+        <v>45152.62548344908</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>1525.876</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>37.99611119999981</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>37.99611119999981</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>1527.4324</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>-1495.253431739969</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>1540.7849</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>263.7951372930497</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="5" t="n">
+        <v>45152.62549503472</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>1525.879</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>38.09939519999737</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>38.09939519999737</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>1528.5163</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>-563.3007920575536</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>1540.7839</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>262.2193739185811</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="5" t="n">
+        <v>45152.62550645833</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>1525.8783</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>38.07529688800342</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>38.07529688800342</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>1528.6018</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>-489.5416096101237</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>1540.7803</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>259.4368469685835</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="5" t="n">
+        <v>45152.62551805555</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>1525.8797</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>38.12349272799915</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>38.12349272799915</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>1528.6667</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>-434.0589542579374</v>
+      </c>
+      <c r="G1081" t="n">
+        <v>1540.7764</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>255.8800356568274</v>
       </c>
     </row>
   </sheetData>
@@ -27050,14 +28624,387 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Horário</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Bragg (nm) @ 169-35</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Temperatura (°C) @ 169-35</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Temperatura (°C)</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Bragg (nm) @ 241-30</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Strain (ue) @ 241-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="n">
+        <v>45152.6272745448</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1535.7079</v>
+      </c>
+      <c r="C2" t="n">
+        <v>35.47896519000705</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35.47896519000705</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1530.7955</v>
+      </c>
+      <c r="F2" t="n">
+        <v>287.0237709407634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n">
+        <v>45152.62728607413</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1535.7091</v>
+      </c>
+      <c r="C3" t="n">
+        <v>35.52094959000446</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.52094959000446</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1530.7926</v>
+      </c>
+      <c r="F3" t="n">
+        <v>284.3185403236105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
+        <v>45152.62729763483</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1535.7075</v>
+      </c>
+      <c r="C4" t="n">
+        <v>35.46496975000261</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35.46496975000261</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1530.7922</v>
+      </c>
+      <c r="F4" t="n">
+        <v>284.3963318457472</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>45152.62730917828</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1535.7091</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35.52094959000446</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35.52094959000446</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1530.7935</v>
+      </c>
+      <c r="F5" t="n">
+        <v>285.0629782710217</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>45152.62732074854</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1535.7082</v>
+      </c>
+      <c r="C6" t="n">
+        <v>35.48946156000441</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35.48946156000441</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1530.7936</v>
+      </c>
+      <c r="F6" t="n">
+        <v>285.3755562174912</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>45152.62733231614</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1535.7084</v>
+      </c>
+      <c r="C7" t="n">
+        <v>35.49645904000266</v>
+      </c>
+      <c r="D7" t="n">
+        <v>35.49645904000266</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1530.7927</v>
+      </c>
+      <c r="F7" t="n">
+        <v>284.580036666093</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>45152.62734386551</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1535.7084</v>
+      </c>
+      <c r="C8" t="n">
+        <v>35.49645904000266</v>
+      </c>
+      <c r="D8" t="n">
+        <v>35.49645904000266</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1530.7932</v>
+      </c>
+      <c r="F8" t="n">
+        <v>284.9936133036271</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>45152.62735542134</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1535.7084</v>
+      </c>
+      <c r="C9" t="n">
+        <v>35.49645904000266</v>
+      </c>
+      <c r="D9" t="n">
+        <v>35.49645904000266</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1530.7922</v>
+      </c>
+      <c r="F9" t="n">
+        <v>284.1664600287468</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>45152.62736713404</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1535.7081</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35.4859627900053</v>
+      </c>
+      <c r="D10" t="n">
+        <v>35.4859627900053</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1530.7908</v>
+      </c>
+      <c r="F10" t="n">
+        <v>283.0850680687823</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>45152.62737859695</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1535.7079</v>
+      </c>
+      <c r="C11" t="n">
+        <v>35.47896519000705</v>
+      </c>
+      <c r="D11" t="n">
+        <v>35.47896519000705</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1530.7884</v>
+      </c>
+      <c r="F11" t="n">
+        <v>281.150982688944</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>45152.62739016533</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1535.7089</v>
+      </c>
+      <c r="C12" t="n">
+        <v>35.51395239000622</v>
+      </c>
+      <c r="D12" t="n">
+        <v>35.51395239000622</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1530.7896</v>
+      </c>
+      <c r="F12" t="n">
+        <v>281.8881600589569</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>45152.62740173829</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1535.7093</v>
+      </c>
+      <c r="C13" t="n">
+        <v>35.52794671000271</v>
+      </c>
+      <c r="D13" t="n">
+        <v>35.52794671000271</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1530.7909</v>
+      </c>
+      <c r="F13" t="n">
+        <v>282.8613007802705</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>45152.62741334623</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1535.7087</v>
+      </c>
+      <c r="C14" t="n">
+        <v>35.50695511000002</v>
+      </c>
+      <c r="D14" t="n">
+        <v>35.50695511000002</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1530.9959</v>
+      </c>
+      <c r="F14" t="n">
+        <v>452.5809608146993</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>45152.62742484439</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1535.7094</v>
+      </c>
+      <c r="C15" t="n">
+        <v>35.53144524000183</v>
+      </c>
+      <c r="D15" t="n">
+        <v>35.53144524000183</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1530.7969</v>
+      </c>
+      <c r="F15" t="n">
+        <v>287.7986811607467</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>45152.62743656303</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1535.7076</v>
+      </c>
+      <c r="C16" t="n">
+        <v>35.46846864000173</v>
+      </c>
+      <c r="D16" t="n">
+        <v>35.46846864000173</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1530.8159</v>
+      </c>
+      <c r="F16" t="n">
+        <v>303.9743225638491</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>45152.62744812625</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1535.7094</v>
+      </c>
+      <c r="C17" t="n">
+        <v>35.53144524000183</v>
+      </c>
+      <c r="D17" t="n">
+        <v>35.53144524000183</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1531.1621</v>
+      </c>
+      <c r="F17" t="n">
+        <v>589.8750571541382</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
+        <v>45152.62745967013</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1535.7086</v>
+      </c>
+      <c r="C18" t="n">
+        <v>35.5034564400009</v>
+      </c>
+      <c r="D18" t="n">
+        <v>35.5034564400009</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1530.8061</v>
+      </c>
+      <c r="F18" t="n">
+        <v>295.6128095298026</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
 </file>